--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-342383.3403267653</v>
+        <v>-348819.864902352</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12025929.52694929</v>
+        <v>12025339.54755887</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>252.6257851424621</v>
       </c>
       <c r="I2" t="n">
-        <v>116.3702545364453</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226486</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>69.9893010461506</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.4178928586277</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -832,10 +832,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>195.2241989245186</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>208.3940281073961</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>408.1216869284186</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226486</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968106</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93946157334101</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>24.21483443197952</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>203.7631626937842</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>104.7375126335475</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>11.61260049965499</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>197.5153595250644</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>86.52884848365557</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>32.55242155107161</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>121.3296674851099</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>97.12173983251152</v>
+        <v>14.54515310024374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
@@ -1822,16 +1822,16 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>68.03120084829813</v>
       </c>
       <c r="W16" t="n">
-        <v>200.4018445502006</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277405</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383889</v>
+        <v>24.17382596574993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828902</v>
+        <v>52.06849973565005</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431734</v>
+        <v>70.57601873167837</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459975</v>
+        <v>55.72314698196078</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643948</v>
+        <v>41.29686219380051</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931859</v>
+        <v>41.22330424667962</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908586</v>
+        <v>42.97275566644689</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147799</v>
+        <v>53.79159358883902</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805003</v>
+        <v>41.14384575541106</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922196</v>
+        <v>18.98356133658299</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367788</v>
+        <v>9.882059701038912</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792052</v>
+        <v>88.00800320656623</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1384.274066526819</v>
+        <v>850.1698118121158</v>
       </c>
       <c r="C2" t="n">
-        <v>991.0985650297491</v>
+        <v>456.9943103150463</v>
       </c>
       <c r="D2" t="n">
-        <v>991.0985650297491</v>
+        <v>456.9943103150463</v>
       </c>
       <c r="E2" t="n">
-        <v>991.0985650297491</v>
+        <v>456.9943103150463</v>
       </c>
       <c r="F2" t="n">
-        <v>574.2041265597269</v>
+        <v>444.1402758854281</v>
       </c>
       <c r="G2" t="n">
-        <v>161.04137104773</v>
+        <v>435.0179244138354</v>
       </c>
       <c r="H2" t="n">
-        <v>161.04137104773</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>74.88432743274711</v>
       </c>
       <c r="M2" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424354</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704471</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.9374095968</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678799</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238216</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U2" t="n">
-        <v>1784.768812238216</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="V2" t="n">
-        <v>1784.768812238216</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="W2" t="n">
-        <v>1784.768812238216</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="X2" t="n">
-        <v>1784.768812238216</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="Y2" t="n">
-        <v>1784.768812238216</v>
+        <v>1250.664557523513</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021433</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622355</v>
+        <v>405.5385555414097</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837159</v>
+        <v>275.44958816289</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946036</v>
+        <v>139.0030972737777</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777354</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777354</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>640.1767275127957</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="M3" t="n">
-        <v>640.1767275127957</v>
+        <v>407.9705203262579</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875479</v>
+        <v>921.5731989359462</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675974</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431047</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.9426819363074</v>
+        <v>1654.854116103749</v>
       </c>
       <c r="C4" t="n">
-        <v>944.9426819363074</v>
+        <v>1654.854116103749</v>
       </c>
       <c r="D4" t="n">
-        <v>813.2074366245622</v>
+        <v>1654.854116103749</v>
       </c>
       <c r="E4" t="n">
-        <v>657.6486244837647</v>
+        <v>1499.295303962951</v>
       </c>
       <c r="F4" t="n">
-        <v>500.3226896967376</v>
+        <v>1341.969369175924</v>
       </c>
       <c r="G4" t="n">
-        <v>332.0686357961831</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>1255.550356385312</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259112</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>1605.969574597376</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628585</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670293</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446871</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>1877.966177287106</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.9426819363074</v>
+        <v>1654.854116103749</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1084.051871667073</v>
+        <v>869.184934279936</v>
       </c>
       <c r="C5" t="n">
-        <v>1084.051871667073</v>
+        <v>869.184934279936</v>
       </c>
       <c r="D5" t="n">
-        <v>873.552853376774</v>
+        <v>869.184934279936</v>
       </c>
       <c r="E5" t="n">
-        <v>873.552853376774</v>
+        <v>466.6014093964805</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>453.7473749668623</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475497</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132837</v>
+        <v>588.4870060424354</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123376</v>
+        <v>588.4870060424354</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760838</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="O5" t="n">
-        <v>2042.925620653167</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U5" t="n">
-        <v>1881.037326457869</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.037326457869</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.037326457869</v>
+        <v>1666.170389070732</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.037326457869</v>
+        <v>1666.170389070732</v>
       </c>
       <c r="Y5" t="n">
-        <v>1484.54661737847</v>
+        <v>1269.679679991333</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414097</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>275.44958816289</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737777</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875479</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.79650946646</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737748</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>395.6329346883093</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C7" t="n">
-        <v>395.6329346883093</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="D7" t="n">
-        <v>395.6329346883093</v>
+        <v>811.2150239861455</v>
       </c>
       <c r="E7" t="n">
-        <v>395.6329346883093</v>
+        <v>655.656211845348</v>
       </c>
       <c r="F7" t="n">
-        <v>238.3069999012822</v>
+        <v>498.330277058321</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>678.9633367571316</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>395.6329346883093</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>395.6329346883093</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>395.6329346883093</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1304.413117686189</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C8" t="n">
-        <v>1304.413117686189</v>
+        <v>786.0349437223717</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>400.5938149390395</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>400.5938149390395</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,16 +4805,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2071.902861797301</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2071.902861797301</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1700.903826765588</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1700.903826765588</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1304.413117686189</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1443.506853769802</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.7721419361088</v>
+        <v>528.7100132738371</v>
       </c>
       <c r="C10" t="n">
-        <v>215.5670240020981</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D10" t="n">
-        <v>215.5670240020981</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E10" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4999,13 +4999,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>842.9645253364824</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>608.8842031194655</v>
+        <v>937.0300931484951</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.7721419361088</v>
+        <v>713.9180319651384</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1711.843491816804</v>
+        <v>1780.935942880364</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>815.1246131550881</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3018.553507949558</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2866.849180655168</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2682.892726235961</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="V11" t="n">
-        <v>2682.892726235961</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="W11" t="n">
-        <v>2682.892726235961</v>
+        <v>2622.79717090105</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.236396315212</v>
+        <v>2305.1408409803</v>
       </c>
       <c r="Y11" t="n">
-        <v>2040.541962382007</v>
+        <v>1980.446407047095</v>
       </c>
     </row>
     <row r="12">
@@ -5133,10 +5133,10 @@
         <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>387.4744316210993</v>
+        <v>520.3770688861377</v>
       </c>
       <c r="C13" t="n">
-        <v>387.4744316210993</v>
+        <v>421.9682260983209</v>
       </c>
       <c r="D13" t="n">
-        <v>303.637593669808</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="E13" t="n">
-        <v>219.8750566752043</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752043</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5197,7 +5197,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581892</v>
@@ -5209,7 +5209,7 @@
         <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593279</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907707</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628195</v>
+        <v>1007.606986424697</v>
       </c>
       <c r="W13" t="n">
-        <v>661.345437340191</v>
+        <v>796.0728595020682</v>
       </c>
       <c r="X13" t="n">
-        <v>538.790217658262</v>
+        <v>633.7888124312451</v>
       </c>
       <c r="Y13" t="n">
-        <v>387.4744316210993</v>
+        <v>633.7888124312451</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1467.291089243224</v>
+        <v>1366.745328492975</v>
       </c>
       <c r="C14" t="n">
-        <v>1145.911862892349</v>
+        <v>1366.745328492975</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.911862892349</v>
+        <v>1053.100474855836</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550874</v>
+        <v>722.3132251185748</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312595</v>
+        <v>722.3132251185748</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654569</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3007.853617698189</v>
+        <v>3091.264311367146</v>
       </c>
       <c r="U14" t="n">
-        <v>3007.853617698189</v>
+        <v>2907.307856947938</v>
       </c>
       <c r="V14" t="n">
-        <v>2737.543083547901</v>
+        <v>2636.997322797651</v>
       </c>
       <c r="W14" t="n">
-        <v>2438.340323662382</v>
+        <v>2337.794562912132</v>
       </c>
       <c r="X14" t="n">
-        <v>2120.683993741633</v>
+        <v>2020.138232991383</v>
       </c>
       <c r="Y14" t="n">
-        <v>1795.989559808427</v>
+        <v>1695.443799058178</v>
       </c>
     </row>
     <row r="15">
@@ -5361,13 +5361,13 @@
         <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.3326729474579</v>
+        <v>571.3326729474577</v>
       </c>
       <c r="C16" t="n">
-        <v>472.923830159641</v>
+        <v>472.9238301596408</v>
       </c>
       <c r="D16" t="n">
-        <v>389.0869922083497</v>
+        <v>389.0869922083495</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083497</v>
+        <v>389.0869922083495</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,13 +5440,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1280.705150907707</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245442</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>936.0428256245442</v>
+        <v>998.3442496005507</v>
       </c>
       <c r="W16" t="n">
-        <v>733.6167200182809</v>
+        <v>998.3442496005507</v>
       </c>
       <c r="X16" t="n">
-        <v>571.3326729474579</v>
+        <v>836.0602025297278</v>
       </c>
       <c r="Y16" t="n">
-        <v>571.3326729474579</v>
+        <v>684.7444164925651</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924233</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5537,25 +5537,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
         <v>1458.313011372373</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462926</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072236</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838021</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,25 +5777,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5838,13 +5838,13 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5920,40 +5920,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.619390679759</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214671</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498046</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868097</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,28 +6011,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
         <v>1458.313011372373</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229888</v>
+        <v>67.69877031230064</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222407</v>
+        <v>149.5338114222425</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960405</v>
+        <v>313.6614512960423</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>499.9530296343063</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>683.1426636655156</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072236</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838021</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,43 +6230,43 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,16 +6312,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6361,37 +6361,37 @@
         <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6470,16 +6470,16 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118092</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1144.804556852008</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667232</v>
+        <v>1690.805456896589</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150702</v>
+        <v>2218.616740534051</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043031</v>
+        <v>2658.656341426379</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174552</v>
+        <v>3006.843833557901</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3303.341514273832</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918666</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.058261612313</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431916</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805518</v>
+        <v>425.1699371610695</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458861</v>
+        <v>723.1136360743163</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041655</v>
+        <v>1017.955390680508</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872944</v>
+        <v>1180.660157722216</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376592</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250195</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395518</v>
+        <v>835.7257283273689</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400716</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045798</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,10 +6959,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7087,34 +7087,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,13 +7208,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229888</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222407</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960405</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7439,10 +7439,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7485,28 +7485,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7576,43 +7576,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
         <v>827.8895422975447</v>
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462911</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797591</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214671</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498046</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868097</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>186.9664330399954</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>663.7141768477817</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>139.5872508449614</v>
       </c>
       <c r="N3" t="n">
-        <v>467.2907990790995</v>
+        <v>604.1626973083972</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8216,25 +8216,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>343.1485770624463</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>283.4906887405025</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,13 +8301,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>574.46027013924</v>
       </c>
       <c r="N6" t="n">
-        <v>144.3219646728103</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,7 +8465,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,16 +8538,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>577.0069902189997</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>440.1969457594874</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8696,7 +8696,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8781,13 +8781,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.0381992661173</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9009,7 +9009,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9018,7 +9018,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>373.1055958271594</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9486,16 +9486,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N21" t="n">
-        <v>459.8553156798577</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N24" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>577.0069902189987</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069887</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,16 +11139,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N42" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>127.8961263344866</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.241258629972417</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50.44604802070685</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>39.33153911500487</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T14" t="n">
-        <v>53.06554418893401</v>
+        <v>135.6421309212018</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>124.2100384843539</v>
       </c>
       <c r="W16" t="n">
-        <v>9.016941103201585</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.598721155460225e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1056796.334506397</v>
+        <v>1056495.560699517</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1056796.334506397</v>
+        <v>1056495.560699517</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937186.6288536799</v>
+        <v>937186.6288536796</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937186.6288536795</v>
+        <v>937186.6288536796</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="C2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="D2" t="n">
         <v>216398.6137120282</v>
       </c>
       <c r="E2" t="n">
-        <v>191230.8281092806</v>
+        <v>191230.8281092805</v>
       </c>
       <c r="F2" t="n">
-        <v>191230.8281092806</v>
+        <v>191230.8281092805</v>
       </c>
       <c r="G2" t="n">
+        <v>216398.6137120283</v>
+      </c>
+      <c r="H2" t="n">
+        <v>216398.6137120282</v>
+      </c>
+      <c r="I2" t="n">
+        <v>216398.6137120282</v>
+      </c>
+      <c r="J2" t="n">
         <v>216398.6137120281</v>
-      </c>
-      <c r="H2" t="n">
-        <v>216398.6137120281</v>
-      </c>
-      <c r="I2" t="n">
-        <v>216398.6137120281</v>
-      </c>
-      <c r="J2" t="n">
-        <v>216398.613712028</v>
       </c>
       <c r="K2" t="n">
         <v>216398.6137120281</v>
       </c>
       <c r="L2" t="n">
-        <v>216398.613712028</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="M2" t="n">
+        <v>216398.6137120281</v>
+      </c>
+      <c r="N2" t="n">
         <v>216398.6137120282</v>
-      </c>
-      <c r="N2" t="n">
-        <v>216398.6137120281</v>
       </c>
       <c r="O2" t="n">
         <v>216398.6137120281</v>
       </c>
       <c r="P2" t="n">
-        <v>216398.6137120281</v>
+        <v>216398.6137120282</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668185</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.2417753966</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081125</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.6940427713</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.78851589425</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.7885158943</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26439,13 +26439,13 @@
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
+        <v>135498.1974718596</v>
+      </c>
+      <c r="K4" t="n">
         <v>135498.1974718595</v>
       </c>
-      <c r="K4" t="n">
-        <v>135498.1974718596</v>
-      </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-210566.44050908</v>
+        <v>-207117.3161154258</v>
       </c>
       <c r="C6" t="n">
-        <v>-28361.49221722412</v>
+        <v>-33258.65908137067</v>
       </c>
       <c r="D6" t="n">
-        <v>-33801.03419304843</v>
+        <v>-41537.32341643996</v>
       </c>
       <c r="E6" t="n">
-        <v>-61066.54158049879</v>
+        <v>-61276.2731271884</v>
       </c>
       <c r="F6" t="n">
-        <v>51056.01989354577</v>
+        <v>50846.28834685613</v>
       </c>
       <c r="G6" t="n">
-        <v>-23944.18614764995</v>
+        <v>-23944.1861476496</v>
       </c>
       <c r="H6" t="n">
-        <v>23481.13938903197</v>
+        <v>23481.13938903221</v>
       </c>
       <c r="I6" t="n">
-        <v>23481.139389032</v>
+        <v>23481.13938903207</v>
       </c>
       <c r="J6" t="n">
-        <v>-189560.7782082536</v>
+        <v>-183044.4930536804</v>
       </c>
       <c r="K6" t="n">
-        <v>17241.37098624903</v>
+        <v>17241.37098624906</v>
       </c>
       <c r="L6" t="n">
-        <v>-37941.21794837222</v>
+        <v>-41990.05515884413</v>
       </c>
       <c r="M6" t="n">
-        <v>-18719.69007059094</v>
+        <v>-19771.38508177922</v>
       </c>
       <c r="N6" t="n">
-        <v>23481.13938903195</v>
+        <v>23481.13938903206</v>
       </c>
       <c r="O6" t="n">
-        <v>-4286.554653739237</v>
+        <v>-4286.554653739266</v>
       </c>
       <c r="P6" t="n">
-        <v>23481.13938903197</v>
+        <v>23481.13938903212</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085231</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346413</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660692</v>
+        <v>78.07030221924575</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551346</v>
+        <v>17.58004954287449</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346413</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042795</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085231</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346413</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>68.21643478671211</v>
       </c>
       <c r="I2" t="n">
-        <v>20.58349120201451</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343466</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925448</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27540,7 +27540,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>23.65888910788266</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>36.51532007032813</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27619,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>173.1926893881028</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.909441028458275</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27670,13 +27670,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343466</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626999</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>127.6320517882079</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27831,10 +27831,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>357.3718830635194</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>208.9623313915378</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27907,16 +27907,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28071,10 +28071,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>175.7595854145866</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>220.1269184951917</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,40 +28755,40 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>35.71049010668767</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634530428</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>128.2979821082792</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082772</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733512</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668771</v>
+        <v>35.71049010668948</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29272,37 +29272,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -29311,37 +29311,37 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29542,19 +29542,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,13 +29776,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>81.10808140893323</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>86.27291196566512</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861254122</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031462</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,11 +30174,11 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668771</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30411,22 +30411,22 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30648,11 +30648,11 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>5.636002634529063</v>
+      </c>
+      <c r="N43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.297982108277</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30885,10 +30885,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082768</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>33.7182633095037</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N2" t="n">
-        <v>514.5956855099976</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.20012879564948</v>
       </c>
       <c r="N3" t="n">
-        <v>381.9186862249329</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>189.9004073319547</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>133.1892414995773</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>482.0731480899281</v>
       </c>
       <c r="N6" t="n">
-        <v>58.94985181864362</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,7 +35185,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,16 +35258,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>484.6198681696878</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705986</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35501,13 +35501,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35738,7 +35738,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>287.7334829729927</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,16 +36051,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>220.7505244816465</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716093</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36206,16 +36206,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N21" t="n">
-        <v>374.483202825691</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184317</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528405</v>
+        <v>7.697989841835494</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.837363033884704e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N24" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634528635</v>
+        <v>5.636002634530415</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36607,7 +36607,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004798</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>484.6198681696868</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,19 +36838,19 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37072,13 +37072,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>579.4114063771442</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4156227105763</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>299.492606783769</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273764</v>
+        <v>75.16693519537661</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345612</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>197.8808906882728</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,10 +37470,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528635</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37707,7 +37707,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634528176</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634527946</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
